--- a/зачет.xlsx
+++ b/зачет.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA1A5B8-91F1-4A87-AADC-7934D813D345}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="10" sheetId="2" r:id="rId1"/>
+    <sheet name="11" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +21,69 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+  <si>
+    <t>Гасман Алексей</t>
+  </si>
+  <si>
+    <t>Железовский Данила</t>
+  </si>
+  <si>
+    <t>Садердинов Андрей</t>
+  </si>
+  <si>
+    <t>Федосенко Татьяна</t>
+  </si>
+  <si>
+    <t>Чиндацкий Леонид</t>
+  </si>
+  <si>
+    <t>Мельников Александр</t>
+  </si>
+  <si>
+    <t>Решетникова Софья</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dmmm"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Monotype Corsiva"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Monotype Corsiva"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="64"/>
+      <name val="Monotype Corsiva"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="64"/>
+      <name val="Monotype Corsiva"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +102,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{7A2578D4-B467-4D80-B459-20845A901FDF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,12 +423,1560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15DA582-6884-465B-A139-200EB9CAA3AA}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AT14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.62890625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="3.41796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.05078125" style="4" customWidth="1"/>
+    <col min="3" max="11" width="2.734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="3.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="42" width="5.15625" style="4" customWidth="1"/>
+    <col min="43" max="43" width="4.62890625" style="4" customWidth="1"/>
+    <col min="44" max="46" width="5.15625" style="4" customWidth="1"/>
+    <col min="47" max="16384" width="13.62890625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11">
+        <v>6</v>
+      </c>
+      <c r="I1" s="11">
+        <v>7</v>
+      </c>
+      <c r="J1" s="11">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11">
+        <v>9</v>
+      </c>
+      <c r="L1" s="11">
+        <v>10</v>
+      </c>
+      <c r="M1" s="11">
+        <v>11</v>
+      </c>
+      <c r="N1" s="11">
+        <v>35</v>
+      </c>
+      <c r="O1" s="11">
+        <v>36</v>
+      </c>
+      <c r="P1" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="11">
+        <v>38</v>
+      </c>
+      <c r="R1" s="11">
+        <v>51</v>
+      </c>
+      <c r="S1" s="11">
+        <v>52</v>
+      </c>
+      <c r="T1" s="11">
+        <v>58</v>
+      </c>
+      <c r="U1" s="11">
+        <v>60</v>
+      </c>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="1"/>
+    </row>
+    <row r="2" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+    </row>
+    <row r="3" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+    </row>
+    <row r="4" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+    </row>
+    <row r="5" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+    </row>
+    <row r="6" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+    </row>
+    <row r="7" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+    </row>
+    <row r="8" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+    </row>
+    <row r="9" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+    </row>
+    <row r="10" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+    </row>
+    <row r="12" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+    </row>
+    <row r="13" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+    </row>
+    <row r="14" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="83" firstPageNumber="4294967295" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4C91E-9278-490F-B338-4005D57BE8F2}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AT15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.62890625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="3.41796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.05078125" style="4" customWidth="1"/>
+    <col min="3" max="46" width="2.83984375" style="4" customWidth="1"/>
+    <col min="47" max="16384" width="13.62890625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="17.7" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+    </row>
+    <row r="2" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+    </row>
+    <row r="3" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+    </row>
+    <row r="4" spans="1:46" s="7" customFormat="1" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+    </row>
+    <row r="5" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+    </row>
+    <row r="6" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+    </row>
+    <row r="7" spans="1:46" s="7" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+    </row>
+    <row r="8" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+    </row>
+    <row r="9" spans="1:46" s="7" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+    </row>
+    <row r="10" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+    </row>
+    <row r="11" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+    </row>
+    <row r="12" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+    </row>
+    <row r="13" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+    </row>
+    <row r="14" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+    </row>
+    <row r="15" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="83" firstPageNumber="4294967295" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
